--- a/test result/result.xlsx
+++ b/test result/result.xlsx
@@ -5,67 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/MPI/test result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3178BF3-45FA-A645-AA90-EA5A3A1E48E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53A531-5336-7149-9387-DB8F96E78F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="3420" windowWidth="24900" windowHeight="14840" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
+    <workbookView xWindow="1880" yWindow="2400" windowWidth="24900" windowHeight="14840" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">Sheet1!$D$2:$D$6</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$6</definedName>
-    <definedName name="_xlchart.v2.24" hidden="1">Sheet1!$A$1</definedName>
-    <definedName name="_xlchart.v2.25" hidden="1">Sheet1!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v2.26" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v2.27" hidden="1">Sheet1!$D$2:$D$6</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$J$2:$J$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$M$2:$M$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>processors</t>
   </si>
@@ -92,9 +46,6 @@
     <t xml:space="preserve">speed </t>
   </si>
   <si>
-    <t>spped up compare one node</t>
-  </si>
-  <si>
     <t>Vertices</t>
   </si>
   <si>
@@ -102,6 +53,12 @@
   </si>
   <si>
     <t>4 processor</t>
+  </si>
+  <si>
+    <t>speed up</t>
+  </si>
+  <si>
+    <t>spped up compare with one proccessor</t>
   </si>
 </sst>
 </file>
@@ -216,7 +173,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>spped up compare one node</c:v>
+                  <c:v>spped up compare with one proccessor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -450,7 +407,355 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Speed up for difference vertices</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8874734607218686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9764878765613516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7431578947368425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4628334628334625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9367708483364541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-43F2-D946-A5A2-A4A3F23C0634}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1400837023"/>
+        <c:axId val="1400838655"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1400837023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400838655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1400838655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400837023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -993,6 +1298,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1026,6 +1834,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3148E679-F285-0446-A5F1-33045D993BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1331,18 +2175,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123B876-2022-E646-BC06-98ECDA7878A5}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1353,19 +2197,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1383,13 +2230,17 @@
         <v>256</v>
       </c>
       <c r="K2">
-        <v>0.184</v>
+        <v>0.18310000000000001</v>
       </c>
       <c r="L2">
-        <v>4.7E-2</v>
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="M2">
+        <f>K2/L2</f>
+        <v>3.8874734607218686</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1408,13 +2259,17 @@
         <v>512</v>
       </c>
       <c r="K3">
-        <v>1.6240000000000001</v>
+        <v>1.6235999999999999</v>
       </c>
       <c r="L3">
-        <v>0.39</v>
+        <v>0.4083</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="1">K3/L3</f>
+        <v>3.9764878765613516</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1433,13 +2288,17 @@
         <v>1024</v>
       </c>
       <c r="K4">
-        <v>12.805999999999999</v>
+        <v>12.801600000000001</v>
       </c>
       <c r="L4">
-        <v>3.48</v>
+        <v>3.42</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>3.7431578947368425</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1463,8 +2322,12 @@
       <c r="L5">
         <v>38.61</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>3.4628334628334625</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>16</v>
       </c>
@@ -1482,8 +2345,15 @@
       <c r="J6">
         <v>4096</v>
       </c>
+      <c r="K6">
+        <v>1019.5</v>
+      </c>
       <c r="L6">
         <v>347.15</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>2.9367708483364541</v>
       </c>
     </row>
   </sheetData>

--- a/test result/result.xlsx
+++ b/test result/result.xlsx
@@ -8,17 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/MPI/test result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53A531-5336-7149-9387-DB8F96E78F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13643568-3F29-774C-8504-453F84740373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="2400" windowWidth="24900" windowHeight="14840" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$J$2:$J$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$M$2:$M$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -128,6 +124,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28442733764424699"/>
+          <c:y val="2.8169014084507043E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -715,6 +719,704 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Speed up for difference vertices</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.8874734607218686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9764878765613516</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7431578947368425</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4628334628334625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9367708483364541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-677B-1440-9AAE-AFF780E72730}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1437066687"/>
+        <c:axId val="1436912303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1437066687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1436912303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1436912303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1437066687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>spped up compare with one proccessor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9080919080919081</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7015503875968991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9657184536834427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.570841239721695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D834-B640-8D9C-5ADEF7791262}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1398690287"/>
+        <c:axId val="1442083951"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1398690287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1442083951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1442083951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1398690287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -795,6 +1497,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1782,6 +2564,1038 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1870,6 +3684,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1248384D-0622-B14B-93DB-F8C5AA45C37B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6347AC-C495-6145-8735-AA24E0E7CDB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2177,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123B876-2022-E646-BC06-98ECDA7878A5}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test result/result.xlsx
+++ b/test result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/MPI/test result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13643568-3F29-774C-8504-453F84740373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200ED59F-3D5F-8B45-847C-BEF648D41C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
+    <workbookView xWindow="11000" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,16 +226,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9080919080919081</c:v>
+                  <c:v>1.7625813810521946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7015503875968991</c:v>
+                  <c:v>3.3462427583103658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9657184536834427</c:v>
+                  <c:v>6.2605534573457744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.570841239721695</c:v>
+                  <c:v>12.896748685755497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,19 +531,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8874734607218686</c:v>
+                  <c:v>3.8980834942801961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9764878765613516</c:v>
+                  <c:v>3.9632724256544116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7431578947368425</c:v>
+                  <c:v>3.7350424846176384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4628334628334625</c:v>
+                  <c:v>3.3462427583103662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9367708483364541</c:v>
+                  <c:v>3.0152469969753715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8874734607218686</c:v>
+                  <c:v>3.8980834942801961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9764878765613516</c:v>
+                  <c:v>3.9632724256544116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7431578947368425</c:v>
+                  <c:v>3.7350424846176384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4628334628334625</c:v>
+                  <c:v>3.3462427583103662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9367708483364541</c:v>
+                  <c:v>3.0152469969753715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,16 +1209,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9080919080919081</c:v>
+                  <c:v>1.7625813810521946</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7015503875968991</c:v>
+                  <c:v>3.3462427583103658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9657184536834427</c:v>
+                  <c:v>6.2605534573457744</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.570841239721695</c:v>
+                  <c:v>12.896748685755497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123B876-2022-E646-BC06-98ECDA7878A5}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4103,11 +4103,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>133.69999999999999</v>
+        <v>118.98569999999999</v>
       </c>
       <c r="C2">
         <f>1/B2</f>
-        <v>7.4794315632011974E-3</v>
+        <v>8.4043712815909822E-3</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4116,14 +4116,14 @@
         <v>256</v>
       </c>
       <c r="K2">
-        <v>0.18310000000000001</v>
+        <v>0.183666</v>
       </c>
       <c r="L2">
-        <v>4.7100000000000003E-2</v>
+        <v>4.7116999999999999E-2</v>
       </c>
       <c r="M2">
         <f>K2/L2</f>
-        <v>3.8874734607218686</v>
+        <v>3.8980834942801961</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4131,28 +4131,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>70.069999999999993</v>
+        <v>67.506500000000003</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C6" si="0">1/B3</f>
-        <v>1.4271442842871416E-2</v>
+        <v>1.4813388340382037E-2</v>
       </c>
       <c r="D3">
         <f xml:space="preserve"> C3/C2*D2</f>
-        <v>1.9080919080919081</v>
+        <v>1.7625813810521946</v>
       </c>
       <c r="J3">
         <v>512</v>
       </c>
       <c r="K3">
-        <v>1.6235999999999999</v>
+        <v>1.6245849999999999</v>
       </c>
       <c r="L3">
-        <v>0.4083</v>
+        <v>0.40991</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="1">K3/L3</f>
-        <v>3.9764878765613516</v>
+        <v>3.9632724256544116</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4160,28 +4160,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>36.119999999999997</v>
+        <v>35.558</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.7685492801771874E-2</v>
+        <v>2.8123066539175432E-2</v>
       </c>
       <c r="D4">
         <f xml:space="preserve"> C4/C2*D2</f>
-        <v>3.7015503875968991</v>
+        <v>3.3462427583103658</v>
       </c>
       <c r="J4">
         <v>1024</v>
       </c>
       <c r="K4">
-        <v>12.801600000000001</v>
+        <v>12.7477</v>
       </c>
       <c r="L4">
-        <v>3.42</v>
+        <v>3.4129999999999998</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>3.7431578947368425</v>
+        <v>3.7350424846176384</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4189,28 +4189,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>19.193999999999999</v>
+        <v>19.00562</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.2099614462852981E-2</v>
+        <v>5.2616015683781957E-2</v>
       </c>
       <c r="D5">
         <f xml:space="preserve"> C5/C2*D2</f>
-        <v>6.9657184536834427</v>
+        <v>6.2605534573457744</v>
       </c>
       <c r="J5">
         <v>2048</v>
       </c>
       <c r="K5">
-        <v>133.69999999999999</v>
+        <v>118.98569999999999</v>
       </c>
       <c r="L5">
-        <v>38.61</v>
+        <v>35.558</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>3.4628334628334625</v>
+        <v>3.3462427583103662</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4218,28 +4218,28 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>12.648</v>
+        <v>9.2260229999999996</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>7.9063883617963321E-2</v>
+        <v>0.10838906428045975</v>
       </c>
       <c r="D6">
         <f xml:space="preserve"> C6/C2*D2</f>
-        <v>10.570841239721695</v>
+        <v>12.896748685755497</v>
       </c>
       <c r="J6">
         <v>4096</v>
       </c>
       <c r="K6">
-        <v>1019.5</v>
+        <v>1046.7429950000001</v>
       </c>
       <c r="L6">
         <v>347.15</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>2.9367708483364541</v>
+        <v>3.0152469969753715</v>
       </c>
     </row>
   </sheetData>

--- a/test result/result.xlsx
+++ b/test result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/MPI/test result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200ED59F-3D5F-8B45-847C-BEF648D41C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5E715-81A3-824E-A039-D807ACF51D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
+    <workbookView xWindow="12520" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,16 +226,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7625813810521946</c:v>
+                  <c:v>1.989102740755587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3462427583103658</c:v>
+                  <c:v>3.9893515327379845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2605534573457744</c:v>
+                  <c:v>7.6028396808411323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.896748685755497</c:v>
+                  <c:v>13.673877007995387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,19 +531,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8980834942801961</c:v>
+                  <c:v>3.8405065533120792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9632724256544116</c:v>
+                  <c:v>3.9207430198383539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7350424846176384</c:v>
+                  <c:v>3.7200786252394811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3462427583103662</c:v>
+                  <c:v>3.9893525349751369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0152469969753715</c:v>
+                  <c:v>5.5113465788011471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8980834942801961</c:v>
+                  <c:v>3.8405065533120792</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9632724256544116</c:v>
+                  <c:v>3.9207430198383539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7350424846176384</c:v>
+                  <c:v>3.7200786252394811</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3462427583103662</c:v>
+                  <c:v>3.9893525349751369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0152469969753715</c:v>
+                  <c:v>5.5113465788011471</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,6 +896,8 @@
         <c:axId val="1437066687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4096"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -913,7 +915,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1209,16 +1211,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7625813810521946</c:v>
+                  <c:v>1.989102740755587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3462427583103658</c:v>
+                  <c:v>3.9893515327379845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2605534573457744</c:v>
+                  <c:v>7.6028396808411323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.896748685755497</c:v>
+                  <c:v>13.673877007995387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3733,8 +3735,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -4063,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123B876-2022-E646-BC06-98ECDA7878A5}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4103,11 +4105,11 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>118.98569999999999</v>
+        <v>95.276430000000005</v>
       </c>
       <c r="C2">
         <f>1/B2</f>
-        <v>8.4043712815909822E-3</v>
+        <v>1.0495775293007934E-2</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -4116,14 +4118,14 @@
         <v>256</v>
       </c>
       <c r="K2">
-        <v>0.183666</v>
+        <v>0.216835</v>
       </c>
       <c r="L2">
-        <v>4.7116999999999999E-2</v>
+        <v>5.6460000000000003E-2</v>
       </c>
       <c r="M2">
         <f>K2/L2</f>
-        <v>3.8980834942801961</v>
+        <v>3.8405065533120792</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4131,28 +4133,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.506500000000003</v>
+        <v>47.8992</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C6" si="0">1/B3</f>
-        <v>1.4813388340382037E-2</v>
+        <v>2.0877175401676856E-2</v>
       </c>
       <c r="D3">
         <f xml:space="preserve"> C3/C2*D2</f>
-        <v>1.7625813810521946</v>
+        <v>1.989102740755587</v>
       </c>
       <c r="J3">
         <v>512</v>
       </c>
       <c r="K3">
-        <v>1.6245849999999999</v>
+        <v>1.707562</v>
       </c>
       <c r="L3">
-        <v>0.40991</v>
+        <v>0.43552000000000002</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="1">K3/L3</f>
-        <v>3.9632724256544116</v>
+        <v>3.9207430198383539</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4160,28 +4162,28 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>35.558</v>
+        <v>23.882686</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.8123066539175432E-2</v>
+        <v>4.1871337252434672E-2</v>
       </c>
       <c r="D4">
         <f xml:space="preserve"> C4/C2*D2</f>
-        <v>3.3462427583103658</v>
+        <v>3.9893515327379845</v>
       </c>
       <c r="J4">
         <v>1024</v>
       </c>
       <c r="K4">
-        <v>12.7477</v>
+        <v>12.031017</v>
       </c>
       <c r="L4">
-        <v>3.4129999999999998</v>
+        <v>3.234076</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>3.7350424846176384</v>
+        <v>3.7200786252394811</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4189,28 +4191,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>19.00562</v>
+        <v>12.531689999999999</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>5.2616015683781957E-2</v>
+        <v>7.9797696878872684E-2</v>
       </c>
       <c r="D5">
         <f xml:space="preserve"> C5/C2*D2</f>
-        <v>6.2605534573457744</v>
+        <v>7.6028396808411323</v>
       </c>
       <c r="J5">
         <v>2048</v>
       </c>
       <c r="K5">
-        <v>118.98569999999999</v>
+        <v>95.276430000000005</v>
       </c>
       <c r="L5">
-        <v>35.558</v>
+        <v>23.882680000000001</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>3.3462427583103662</v>
+        <v>3.9893525349751369</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4218,15 +4220,15 @@
         <v>16</v>
       </c>
       <c r="B6">
-        <v>9.2260229999999996</v>
+        <v>6.9677699999999998</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.10838906428045975</v>
+        <v>0.14351794046014724</v>
       </c>
       <c r="D6">
         <f xml:space="preserve"> C6/C2*D2</f>
-        <v>12.896748685755497</v>
+        <v>13.673877007995387</v>
       </c>
       <c r="J6">
         <v>4096</v>
@@ -4235,11 +4237,11 @@
         <v>1046.7429950000001</v>
       </c>
       <c r="L6">
-        <v>347.15</v>
+        <v>189.92509000000001</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>3.0152469969753715</v>
+        <v>5.5113465788011471</v>
       </c>
     </row>
   </sheetData>

--- a/test result/result.xlsx
+++ b/test result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/MPI/test result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E5E715-81A3-824E-A039-D807ACF51D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5302651-5BCB-7D4E-8A90-2324030AFB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12520" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
   </bookViews>
@@ -543,7 +543,7 @@
                   <c:v>3.9893525349751369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5113465788011471</c:v>
+                  <c:v>3.9726298668596125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,7 +869,7 @@
                   <c:v>3.9893525349751369</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5113465788011471</c:v>
+                  <c:v>3.9726298668596125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123B876-2022-E646-BC06-98ECDA7878A5}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4234,14 +4234,14 @@
         <v>4096</v>
       </c>
       <c r="K6">
-        <v>1046.7429950000001</v>
+        <v>754.50208499999997</v>
       </c>
       <c r="L6">
         <v>189.92509000000001</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>5.5113465788011471</v>
+        <v>3.9726298668596125</v>
       </c>
     </row>
   </sheetData>

--- a/test result/result.xlsx
+++ b/test result/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanwang/Desktop/cits3402/project2/MPI/test result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5302651-5BCB-7D4E-8A90-2324030AFB5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF80AA87-7C9B-8148-AFD6-12D38E224BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12520" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
+    <workbookView xWindow="5080" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{4B6E9585-6CE5-D345-BB3F-E7808C662D02}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,19 +531,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8405065533120792</c:v>
+                  <c:v>3.8178675977850669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9207430198383539</c:v>
+                  <c:v>3.924563301189846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7200786252394811</c:v>
+                  <c:v>3.7363567861460658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9893525349751369</c:v>
+                  <c:v>4.0387189579796585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9726298668596125</c:v>
+                  <c:v>3.9673646330771777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,19 +857,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.8405065533120792</c:v>
+                  <c:v>3.8178675977850669</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9207430198383539</c:v>
+                  <c:v>3.924563301189846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7200786252394811</c:v>
+                  <c:v>3.7363567861460658</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9893525349751369</c:v>
+                  <c:v>4.0387189579796585</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9726298668596125</c:v>
+                  <c:v>3.9673646330771777</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4065,8 +4065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4123B876-2022-E646-BC06-98ECDA7878A5}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4118,14 +4118,14 @@
         <v>256</v>
       </c>
       <c r="K2">
-        <v>0.216835</v>
+        <v>0.21649599999999999</v>
       </c>
       <c r="L2">
-        <v>5.6460000000000003E-2</v>
+        <v>5.6705999999999999E-2</v>
       </c>
       <c r="M2">
         <f>K2/L2</f>
-        <v>3.8405065533120792</v>
+        <v>3.8178675977850669</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -4147,14 +4147,14 @@
         <v>512</v>
       </c>
       <c r="K3">
-        <v>1.707562</v>
+        <v>1.7052620000000001</v>
       </c>
       <c r="L3">
-        <v>0.43552000000000002</v>
+        <v>0.43451000000000001</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M6" si="1">K3/L3</f>
-        <v>3.9207430198383539</v>
+        <v>3.924563301189846</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -4176,14 +4176,14 @@
         <v>1024</v>
       </c>
       <c r="K4">
-        <v>12.031017</v>
+        <v>12.059099</v>
       </c>
       <c r="L4">
-        <v>3.234076</v>
+        <v>3.2275019999999999</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
-        <v>3.7200786252394811</v>
+        <f>K4/L4</f>
+        <v>3.7363567861460658</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -4205,14 +4205,14 @@
         <v>2048</v>
       </c>
       <c r="K5">
-        <v>95.276430000000005</v>
+        <v>96.778530000000003</v>
       </c>
       <c r="L5">
-        <v>23.882680000000001</v>
+        <v>23.962679999999999</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>3.9893525349751369</v>
+        <v>4.0387189579796585</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -4234,14 +4234,14 @@
         <v>4096</v>
       </c>
       <c r="K6">
-        <v>754.50208499999997</v>
+        <v>753.50208499999997</v>
       </c>
       <c r="L6">
         <v>189.92509000000001</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>3.9726298668596125</v>
+        <v>3.9673646330771777</v>
       </c>
     </row>
   </sheetData>
